--- a/3_experts_with_kl_res/SEED/result.xlsx
+++ b/3_experts_with_kl_res/SEED/result.xlsx
@@ -464,7 +464,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8078</v>
+        <v>0.8779</v>
       </c>
     </row>
     <row r="4">
@@ -684,7 +684,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6</v>
+        <v>0.9364</v>
       </c>
     </row>
     <row r="24">
@@ -695,7 +695,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6</v>
+        <v>0.9725</v>
       </c>
     </row>
     <row r="25">
@@ -706,7 +706,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6</v>
+        <v>0.9754</v>
       </c>
     </row>
     <row r="26">
@@ -717,7 +717,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6</v>
+        <v>0.9928</v>
       </c>
     </row>
     <row r="27">

--- a/3_experts_with_kl_res/SEED/result.xlsx
+++ b/3_experts_with_kl_res/SEED/result.xlsx
@@ -552,7 +552,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9957</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -563,7 +563,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7608</v>
+        <v>0.7738</v>
       </c>
     </row>
     <row r="13">
@@ -574,7 +574,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7962</v>
+        <v>0.8165</v>
       </c>
     </row>
     <row r="14">
@@ -596,7 +596,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8873</v>
+        <v>0.9068000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -618,7 +618,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9899</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -629,7 +629,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7977</v>
+        <v>0.8374</v>
       </c>
     </row>
     <row r="19">
@@ -640,7 +640,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>0.888</v>
+        <v>0.909</v>
       </c>
     </row>
     <row r="20">
@@ -651,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9668</v>
+        <v>0.9841</v>
       </c>
     </row>
     <row r="21">
@@ -662,7 +662,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9328</v>
+        <v>0.9689</v>
       </c>
     </row>
     <row r="22">
@@ -717,7 +717,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9928</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -728,7 +728,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6</v>
+        <v>0.9191</v>
       </c>
     </row>
     <row r="28">
@@ -739,7 +739,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6</v>
+        <v>0.9487</v>
       </c>
     </row>
     <row r="29">
@@ -750,7 +750,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6</v>
+        <v>0.7926</v>
       </c>
     </row>
     <row r="30">
@@ -761,7 +761,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6</v>
+        <v>0.771</v>
       </c>
     </row>
     <row r="31">
@@ -772,7 +772,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6</v>
+        <v>0.9256</v>
       </c>
     </row>
     <row r="32">
@@ -783,7 +783,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6</v>
+        <v>0.8338</v>
       </c>
     </row>
     <row r="33">
@@ -794,7 +794,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6</v>
+        <v>0.9581</v>
       </c>
     </row>
     <row r="34">
@@ -805,7 +805,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>0.6</v>
+        <v>0.987</v>
       </c>
     </row>
     <row r="35">
@@ -816,7 +816,7 @@
         <v>34</v>
       </c>
       <c r="C35" t="n">
-        <v>0.6</v>
+        <v>0.8158</v>
       </c>
     </row>
     <row r="36">
@@ -827,7 +827,7 @@
         <v>35</v>
       </c>
       <c r="C36" t="n">
-        <v>0.6</v>
+        <v>0.8461</v>
       </c>
     </row>
     <row r="37">
@@ -838,7 +838,7 @@
         <v>36</v>
       </c>
       <c r="C37" t="n">
-        <v>0.6</v>
+        <v>0.987</v>
       </c>
     </row>
     <row r="38">
@@ -849,7 +849,7 @@
         <v>37</v>
       </c>
       <c r="C38" t="n">
-        <v>0.6</v>
+        <v>0.927</v>
       </c>
     </row>
     <row r="39">
@@ -860,7 +860,7 @@
         <v>38</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6</v>
+        <v>0.9487</v>
       </c>
     </row>
     <row r="40">
@@ -871,7 +871,7 @@
         <v>39</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6</v>
+        <v>0.9241</v>
       </c>
     </row>
     <row r="41">
@@ -882,7 +882,7 @@
         <v>40</v>
       </c>
       <c r="C41" t="n">
-        <v>0.6</v>
+        <v>0.9581</v>
       </c>
     </row>
     <row r="42">
@@ -893,7 +893,7 @@
         <v>41</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6</v>
+        <v>0.9892</v>
       </c>
     </row>
     <row r="43">
@@ -904,7 +904,7 @@
         <v>42</v>
       </c>
       <c r="C43" t="n">
-        <v>0.6</v>
+        <v>0.8605</v>
       </c>
     </row>
     <row r="44">
@@ -915,7 +915,7 @@
         <v>43</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6</v>
+        <v>0.9883999999999999</v>
       </c>
     </row>
     <row r="45">
@@ -926,7 +926,7 @@
         <v>44</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -937,7 +937,7 @@
         <v>45</v>
       </c>
       <c r="C46" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
